--- a/instance/zyjk/swagger/auth.xlsx
+++ b/instance/zyjk/swagger/auth.xlsx
@@ -59,32 +59,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -93,6 +71,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -480,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -492,278 +515,354 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="40" customWidth="1" min="7" max="7"/>
-    <col width="70" customWidth="1" min="8" max="8"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="27" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>小程序用户登出</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>/auth/appletLogout</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr"/>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr"/>
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>[{'name': 'token', 'in': 'header', 'description': 'token', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>鉴权中心</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>短信验证码登录</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>/auth/codeLogin</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>code={string}&amp;phone={string}</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>[{'name': 'code', 'in': 'query', 'description': 'code', 'required': False, 'type': 'string'}, {'name': 'phone', 'in': 'query', 'description': 'phone', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>C端用户鉴权中心</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>C端用户登录</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>/auth/cuserLogin</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>code={*string}&amp;type={*string}</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
-        <is>
-          <t>[{'name': 'code', 'in': 'query', 'description': '授权码', 'required': True, 'type': 'string'}, {'name': 'type', 'in': 'query', 'description': '患者小程序类型（1、心电 2、高血压）', 'required': True, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>[{'name': 'code', 'in': 'query', 'description': '授权码', 'required': True, 'type': 'string'}, {'name': 'type', 'in': 'query', 'description': '患者小程序类型（1、心电 2、高血压 4、沪享瘦患者端）', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>用token去生成code（在进行切系统的时候拿token来生成code值）</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>/auth/getCodeByToken</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>[{'name': 'token', 'in': 'header', 'description': 'token', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>用code去换取token</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>/auth/getTokenByCode</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>code={string}</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>[{'name': 'code', 'in': 'query', 'description': 'code', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>沪享瘦医生端小程序发送短信登录验证码</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>/auth/hxsSendCode</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>phone={string}</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>[{'name': 'phone', 'in': 'query', 'description': 'phone', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>鉴权中心</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>pc用户登录</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>/auth/login</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr"/>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>{"coordinate": "", "isEasyPSW": 0, "newFirstPassword": "", "newSecondPassword": "", "password": "", "secretCardCode": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>pc用户登出</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>/auth/logout</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr"/>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>[{'name': 'token', 'in': 'header', 'description': 'token', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>医生小程序登录</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>/auth/miniLogin</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr"/>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>{"jsCode": "", "loginEnum": "", "password": "", "userNo": ""}</t>
         </is>
